--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>719566.8175805961</v>
+        <v>717679.2360641939</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>87.82189857348439</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>307.0522057489489</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +753,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553064</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -820,13 +820,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>146.4538219748019</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>10.03156470826285</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48.22594188766967</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>312.694016207736</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -947,10 +947,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>13.80890171427169</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>127.0044127072328</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>170.6363137151463</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>116.1126617779078</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,13 +1187,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>50.28788303971731</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>78.31629253725373</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.4294206174716</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>85.42291167995823</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,22 +1813,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>43.27874132425503</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>228.9539784782712</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,25 +2002,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>127.7632014919468</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>14.83730165918364</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2059,16 +2059,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,10 +2242,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>12.01789850670254</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,10 +2293,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>169.7438101404423</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2333,10 +2333,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2533,16 +2533,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>101.9276424593655</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>95.02525064967674</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,19 +2713,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>110.5530139536563</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>183.4653217847141</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2776,10 +2776,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533804</v>
+        <v>94.49473006087342</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700709</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965541</v>
+        <v>93.41221638965527</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801223</v>
+        <v>91.23070601801209</v>
       </c>
       <c r="F31" t="n">
-        <v>90.2177913943743</v>
+        <v>90.21779139437416</v>
       </c>
       <c r="G31" t="n">
-        <v>24.62163952773174</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897918</v>
+        <v>93.71057173897904</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571492</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523583</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550463</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700204</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952711</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080341</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604802</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3044,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I32" t="n">
         <v>81.77913505274077</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789486</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3323,7 +3323,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3560,7 +3560,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
         <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463134</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>983.0286321745432</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C2" t="n">
-        <v>614.0661152341315</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D2" t="n">
-        <v>614.0661152341315</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358873</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018221</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018221</v>
+        <v>2553.411413090651</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018221</v>
+        <v>2334.776746062713</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656313</v>
+        <v>2334.776746062713</v>
       </c>
       <c r="V2" t="n">
-        <v>2133.233562475556</v>
+        <v>2334.776746062713</v>
       </c>
       <c r="W2" t="n">
-        <v>2133.233562475556</v>
+        <v>1982.008090792599</v>
       </c>
       <c r="X2" t="n">
-        <v>1759.767804214477</v>
+        <v>1982.008090792599</v>
       </c>
       <c r="Y2" t="n">
-        <v>1369.628472238665</v>
+        <v>1591.868758816787</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170821</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359551</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747038</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692483</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102423994</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204942</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615927</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572644</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315295</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414846</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.07275543519</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.317569050019</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430046</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.8329293182748</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C4" t="n">
-        <v>200.8329293182748</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064341</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064341</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064341</v>
+        <v>432.0491721307175</v>
       </c>
       <c r="U4" t="n">
-        <v>438.955373861002</v>
+        <v>432.0491721307175</v>
       </c>
       <c r="V4" t="n">
-        <v>438.955373861002</v>
+        <v>432.0491721307175</v>
       </c>
       <c r="W4" t="n">
-        <v>428.8224802162921</v>
+        <v>432.0491721307175</v>
       </c>
       <c r="X4" t="n">
-        <v>200.8329293182748</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="Y4" t="n">
-        <v>200.8329293182748</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1703.566937845283</v>
+        <v>1327.013560149308</v>
       </c>
       <c r="C5" t="n">
-        <v>1703.566937845283</v>
+        <v>1327.013560149308</v>
       </c>
       <c r="D5" t="n">
-        <v>1345.301239238533</v>
+        <v>1327.013560149308</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>941.2253075510637</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,7 +4565,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733129</v>
@@ -4595,22 +4595,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.514423990285</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2478.514423990285</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W5" t="n">
-        <v>2125.745768720171</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X5" t="n">
-        <v>1752.280010459091</v>
+        <v>1717.15289212512</v>
       </c>
       <c r="Y5" t="n">
-        <v>1752.280010459091</v>
+        <v>1327.013560149308</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4620,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036422</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>67.89136739033586</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="C7" t="n">
-        <v>67.89136739033586</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="D7" t="n">
-        <v>67.89136739033586</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="E7" t="n">
-        <v>67.89136739033586</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="F7" t="n">
-        <v>67.89136739033586</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="G7" t="n">
-        <v>67.89136739033586</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942401</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942401</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="V7" t="n">
-        <v>295.8809182883532</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="W7" t="n">
-        <v>295.8809182883532</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="X7" t="n">
-        <v>67.89136739033586</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="Y7" t="n">
-        <v>67.89136739033586</v>
+        <v>182.2302673832259</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1559.428949058529</v>
+        <v>1327.372931623164</v>
       </c>
       <c r="C8" t="n">
-        <v>1190.466432118118</v>
+        <v>1327.372931623164</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>1327.372931623164</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762915</v>
+        <v>1327.372931623164</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>916.3870268335563</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>498.4232187317432</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>171.228498767746</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T8" t="n">
         <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2302.336936304455</v>
+        <v>2048.575150942546</v>
       </c>
       <c r="V8" t="n">
-        <v>2302.336936304455</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W8" t="n">
-        <v>1949.568281034341</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X8" t="n">
-        <v>1949.568281034341</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="Y8" t="n">
-        <v>1559.428949058529</v>
+        <v>1327.372931623164</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4878,22 +4878,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>201.8560754027576</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C10" t="n">
-        <v>201.8560754027576</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>290.7987205870805</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>473.4444960005476</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X10" t="n">
-        <v>473.4444960005476</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y10" t="n">
-        <v>252.6519168570175</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,67 +5024,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>841.8631140141293</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1646.27469227828</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>245.130185042679</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="C13" t="n">
-        <v>245.130185042679</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="D13" t="n">
-        <v>245.130185042679</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1078.360482071968</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>789.2318432855266</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>534.5473550796397</v>
+        <v>955.1031435655739</v>
       </c>
       <c r="W13" t="n">
-        <v>245.130185042679</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X13" t="n">
-        <v>245.130185042679</v>
+        <v>579.400204154918</v>
       </c>
       <c r="Y13" t="n">
-        <v>245.130185042679</v>
+        <v>579.400204154918</v>
       </c>
     </row>
     <row r="14">
@@ -5273,34 +5273,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>2041.248044820708</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>563.422146135194</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C16" t="n">
-        <v>563.422146135194</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D16" t="n">
-        <v>413.3055067228584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,7 +5452,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
         <v>1498.916270557903</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U16" t="n">
-        <v>1255.280360145925</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V16" t="n">
-        <v>1255.280360145925</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W16" t="n">
-        <v>965.8631901089639</v>
+        <v>1012.965137424469</v>
       </c>
       <c r="X16" t="n">
-        <v>965.8631901089639</v>
+        <v>784.9755865264517</v>
       </c>
       <c r="Y16" t="n">
-        <v>745.0706109654337</v>
+        <v>564.1830073829216</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,67 +5498,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701562</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>796.3635653766204</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>674.7185717878258</v>
+        <v>599.7337779135435</v>
       </c>
       <c r="C19" t="n">
-        <v>674.7185717878258</v>
+        <v>430.7975949856366</v>
       </c>
       <c r="D19" t="n">
-        <v>524.60193237549</v>
+        <v>430.7975949856366</v>
       </c>
       <c r="E19" t="n">
-        <v>376.6888387930969</v>
+        <v>430.7975949856366</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>430.7975949856366</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>262.6222733054573</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>112.2042648534006</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247865</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>964.1357418247865</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V19" t="n">
-        <v>964.1357418247865</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W19" t="n">
-        <v>674.7185717878258</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="X19" t="n">
-        <v>674.7185717878258</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="Y19" t="n">
-        <v>674.7185717878258</v>
+        <v>599.7337779135435</v>
       </c>
     </row>
     <row r="20">
@@ -5729,22 +5729,22 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805464</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028587</v>
@@ -5753,25 +5753,25 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014293</v>
@@ -5789,7 +5789,7 @@
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5829,25 +5829,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>1288.32563221405</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M21" t="n">
-        <v>1595.645765494011</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N21" t="n">
-        <v>1925.508393158044</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O21" t="n">
-        <v>2205.048458376741</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2410.070939158951</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>557.804124327983</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>557.804124327983</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>407.6874849156472</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>259.7743913332542</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>259.7743913332542</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>259.7743913332542</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>109.3563828811975</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028587</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5941,19 +5941,19 @@
         <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>1075.210845262961</v>
+        <v>786.0822064765189</v>
       </c>
       <c r="V22" t="n">
-        <v>1075.210845262961</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W22" t="n">
-        <v>785.7936752260003</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>557.804124327983</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>557.804124327983</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277036</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>901.6749225845924</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.043068977054</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N24" t="n">
-        <v>2041.248044820708</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>2320.788110039405</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>731.6365520183392</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C25" t="n">
-        <v>562.7003690904323</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D25" t="n">
-        <v>562.7003690904323</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E25" t="n">
-        <v>562.7003690904323</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6181,16 +6181,16 @@
         <v>1498.916270557903</v>
       </c>
       <c r="V25" t="n">
-        <v>1244.231782352016</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W25" t="n">
-        <v>1141.274567746596</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X25" t="n">
-        <v>913.2850168485789</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y25" t="n">
-        <v>913.2850168485789</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,25 +6209,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6236,40 +6236,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>306.3284467737871</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>553.0935746802512</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1321.461721072713</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1651.324348736746</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>844.0280401274</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>675.0918571994931</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>524.9752177871574</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>377.0621242047642</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119729</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119729</v>
+        <v>1313.597763704656</v>
       </c>
       <c r="T28" t="n">
-        <v>1387.841167119729</v>
+        <v>1089.812348494162</v>
       </c>
       <c r="U28" t="n">
-        <v>1098.712528333287</v>
+        <v>800.68370970772</v>
       </c>
       <c r="V28" t="n">
-        <v>844.0280401274</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W28" t="n">
-        <v>844.0280401274</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>844.0280401274</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>844.0280401274</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6440,40 +6440,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6482,7 +6482,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,37 +6528,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>412.6079778147082</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L30" t="n">
-        <v>659.3731057211724</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M30" t="n">
-        <v>1427.741252113634</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N30" t="n">
-        <v>1757.603879777667</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>607.5569798833401</v>
+        <v>525.2850453761803</v>
       </c>
       <c r="C31" t="n">
-        <v>494.3816622368039</v>
+        <v>525.2850453761803</v>
       </c>
       <c r="D31" t="n">
-        <v>400.0258881058388</v>
+        <v>430.9292712452153</v>
       </c>
       <c r="E31" t="n">
-        <v>307.8736598048164</v>
+        <v>338.777042944193</v>
       </c>
       <c r="F31" t="n">
-        <v>216.7445775882767</v>
+        <v>247.6479607276534</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309719</v>
+        <v>247.6479607276534</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864671</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.08763629335</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667502</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962043</v>
+        <v>997.6688721962053</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286023</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056073</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899269</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096192</v>
+        <v>1791.966918252997</v>
       </c>
       <c r="T31" t="n">
-        <v>1736.652680096192</v>
+        <v>1623.942368323874</v>
       </c>
       <c r="U31" t="n">
-        <v>1503.284906591121</v>
+        <v>1390.574594818803</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.361283666605</v>
+        <v>1191.650971894287</v>
       </c>
       <c r="W31" t="n">
-        <v>1070.704978911015</v>
+        <v>957.9946671386967</v>
       </c>
       <c r="X31" t="n">
-        <v>898.4762932943686</v>
+        <v>785.7659815220502</v>
       </c>
       <c r="Y31" t="n">
-        <v>733.4445794322091</v>
+        <v>620.7342676598909</v>
       </c>
     </row>
     <row r="32">
@@ -6680,37 +6680,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823791</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6780,22 +6780,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103123</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,7 +6856,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254957</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6935,10 +6935,10 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6971,16 +6971,16 @@
         <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7002,13 +7002,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028583</v>
@@ -7017,19 +7017,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>549.598437470156</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>796.3635653766199</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M36" t="n">
-        <v>1406.737288300438</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N36" t="n">
-        <v>1736.599915964471</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O36" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
         <v>2536.440602918915</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229675</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
@@ -7096,10 +7096,10 @@
         <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="38">
@@ -7151,16 +7151,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7169,13 +7169,13 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7193,25 +7193,25 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341671</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1302.911127126628</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982971</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7366,16 +7366,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,19 +7394,19 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
@@ -7427,16 +7427,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7445,16 +7445,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>138.7081686256435</v>
@@ -7494,16 +7494,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.911127126629</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N42" t="n">
-        <v>1632.773754790662</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
         <v>2536.440602918915</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982971</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7637,40 +7637,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7722,28 +7722,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C46" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F46" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,13 +7825,13 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
@@ -7840,16 +7840,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747078</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8307,7 +8307,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360587</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8544,7 +8544,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360591</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8778,19 +8778,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>199.6230805871082</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>412.6002929596423</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599039</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9255,16 +9255,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>96.0374492781462</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>127.6461250100647</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,28 +9717,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>41.75994765618265</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>18.7379736829127</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10191,28 +10191,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>297.2466435761022</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10428,13 +10428,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>392.1113620226436</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,10 +10443,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10665,28 +10665,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M36" t="n">
-        <v>306.1147370139967</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>202.5230052237951</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,7 +11142,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11151,16 +11151,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>104.8749102765748</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>306.114737013996</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,7 +23431,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23464,10 +23464,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>3.118140440917614</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>140.2867437090789</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23701,22 +23701,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>242.9586110743223</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>57.56901985831985</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>17.65784653098443</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>95.58194380508836</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,16 +23947,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,10 +24130,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24142,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>98.40134695756946</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,10 +24181,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24421,16 +24421,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>184.5953558772255</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>130.6844047393604</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24601,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>34.86803406927492</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>14.45548819888911</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>30.1339934925068</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>86.66867230708891</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571502</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523572</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298323</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -26314,46 +26314,46 @@
         <v>369468.7964389274</v>
       </c>
       <c r="C2" t="n">
-        <v>369468.7964389274</v>
+        <v>369468.7964389273</v>
       </c>
       <c r="D2" t="n">
         <v>369468.7964389274</v>
       </c>
       <c r="E2" t="n">
+        <v>351926.1537639381</v>
+      </c>
+      <c r="F2" t="n">
         <v>351926.1537639382</v>
       </c>
-      <c r="F2" t="n">
-        <v>351926.1537639381</v>
-      </c>
       <c r="G2" t="n">
-        <v>351926.1537639381</v>
+        <v>351926.153763938</v>
       </c>
       <c r="H2" t="n">
-        <v>351926.1537639381</v>
+        <v>351926.153763938</v>
       </c>
       <c r="I2" t="n">
         <v>351926.1537639379</v>
       </c>
       <c r="J2" t="n">
-        <v>351926.1537639379</v>
+        <v>351926.153763938</v>
       </c>
       <c r="K2" t="n">
-        <v>366139.9236107428</v>
+        <v>366139.9236107427</v>
       </c>
       <c r="L2" t="n">
-        <v>369468.7964389281</v>
+        <v>369468.7964389282</v>
       </c>
       <c r="M2" t="n">
-        <v>369468.7964389275</v>
+        <v>369468.7964389276</v>
       </c>
       <c r="N2" t="n">
-        <v>369468.7964389276</v>
+        <v>369468.7964389282</v>
       </c>
       <c r="O2" t="n">
         <v>369468.7964389281</v>
       </c>
       <c r="P2" t="n">
-        <v>369468.7964389281</v>
+        <v>369468.7964389282</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145443</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284554</v>
+        <v>44162.60530284564</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086675</v>
+        <v>10342.90680086687</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.11379904410569e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284554</v>
+        <v>44162.60530284566</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>147917.0487159208</v>
+      </c>
+      <c r="C4" t="n">
+        <v>147917.0487159208</v>
+      </c>
+      <c r="D4" t="n">
         <v>147917.0487159209</v>
       </c>
-      <c r="C4" t="n">
-        <v>147917.0487159209</v>
-      </c>
-      <c r="D4" t="n">
-        <v>147917.0487159208</v>
-      </c>
       <c r="E4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7916.731656007497</v>
+      </c>
+      <c r="G4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="F4" t="n">
-        <v>7916.731656007461</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7916.731656007463</v>
-      </c>
       <c r="H4" t="n">
+        <v>7916.731656007458</v>
+      </c>
+      <c r="I4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="I4" t="n">
-        <v>7916.731656007413</v>
-      </c>
       <c r="J4" t="n">
-        <v>7916.731656007465</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020397</v>
+        <v>26081.35417020402</v>
       </c>
       <c r="L4" t="n">
+        <v>30335.51889732798</v>
+      </c>
+      <c r="M4" t="n">
+        <v>30335.51889732803</v>
+      </c>
+      <c r="N4" t="n">
+        <v>30335.51889732795</v>
+      </c>
+      <c r="O4" t="n">
         <v>30335.51889732797</v>
       </c>
-      <c r="M4" t="n">
-        <v>30335.51889732802</v>
-      </c>
-      <c r="N4" t="n">
-        <v>30335.51889732802</v>
-      </c>
-      <c r="O4" t="n">
-        <v>30335.51889732798</v>
-      </c>
       <c r="P4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732797</v>
       </c>
     </row>
     <row r="5">
@@ -26476,22 +26476,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
@@ -26503,13 +26503,13 @@
         <v>97715.10582002538</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-451275.2095549473</v>
+        <v>-451275.2095549474</v>
       </c>
       <c r="C6" t="n">
-        <v>138692.6696595971</v>
+        <v>138692.669659597</v>
       </c>
       <c r="D6" t="n">
         <v>138692.6696595971</v>
       </c>
       <c r="E6" t="n">
-        <v>-273137.9403176822</v>
+        <v>-273235.3994436545</v>
       </c>
       <c r="F6" t="n">
-        <v>252022.0961592139</v>
+        <v>251924.6370332419</v>
       </c>
       <c r="G6" t="n">
-        <v>252022.0961592139</v>
+        <v>251924.6370332417</v>
       </c>
       <c r="H6" t="n">
-        <v>252022.0961592139</v>
+        <v>251924.6370332417</v>
       </c>
       <c r="I6" t="n">
-        <v>252022.0961592139</v>
+        <v>251924.6370332417</v>
       </c>
       <c r="J6" t="n">
-        <v>75598.87696662093</v>
+        <v>75501.41784064875</v>
       </c>
       <c r="K6" t="n">
-        <v>199267.7556074705</v>
+        <v>199249.2618695359</v>
       </c>
       <c r="L6" t="n">
-        <v>231075.264920708</v>
+        <v>231075.2649207079</v>
       </c>
       <c r="M6" t="n">
-        <v>106617.156487737</v>
+        <v>106617.1564877371</v>
       </c>
       <c r="N6" t="n">
-        <v>241418.1717215742</v>
+        <v>241418.1717215747</v>
       </c>
       <c r="O6" t="n">
-        <v>241418.1717215746</v>
+        <v>241418.1717215748</v>
       </c>
       <c r="P6" t="n">
-        <v>197255.5664187293</v>
+        <v>197255.5664187292</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>2.842170943040401e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964068</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964068</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26735,49 +26735,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26808,7 +26808,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108374</v>
+        <v>12.92863350108359</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855708</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545551</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855705</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481174</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>86.59381423548712</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>20.70005272118601</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27473,7 +27473,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.108446667785756e-12</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27540,13 +27540,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853702</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,25 +27579,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>78.58128348328236</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>276.4914336283281</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>334.5078997758109</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>94.18202953397548</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27789,10 +27789,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3619871275235</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>7.96120908510548</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853701</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>184.0467279055366</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>35.81865446695348</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27907,13 +27907,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>129.54409714222</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,19 +28020,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>67.10475548567752</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,16 +28068,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855708</v>
       </c>
     </row>
     <row r="32">
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30280,7 +30280,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="41">
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890688</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M4" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N4" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31753,7 +31753,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,31 +31762,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31835,31 +31835,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,7 +31926,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31938,19 +31938,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,7 +31990,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,31 +31999,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32072,31 +32072,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,7 +32163,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32175,19 +32175,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,10 +32400,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,10 +32698,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,37 +32710,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32816,7 +32816,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,10 +32935,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,37 +32947,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33053,7 +33053,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33655,40 +33655,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,10 +33728,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215733</v>
@@ -33740,7 +33740,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
         <v>452.5584109724845</v>
@@ -33749,10 +33749,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
@@ -33764,7 +33764,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33828,7 +33828,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33840,10 +33840,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
         <v>0.08167695791351813</v>
@@ -33892,40 +33892,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,10 +33965,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215733</v>
@@ -33977,7 +33977,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
         <v>452.5584109724845</v>
@@ -33986,10 +33986,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
@@ -34001,7 +34001,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34065,7 +34065,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34077,10 +34077,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
         <v>0.08167695791351813</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770687</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,13 +34857,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M4" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N4" t="n">
         <v>148.370846145888</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,7 +35027,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839189</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35413,25 +35413,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>481.9867828282165</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,25 +35650,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>745.7948663576552</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502041</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>378.4011515192544</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>334.8610358541607</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>215.6591577951388</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594837</v>
+        <v>345.2951542341712</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004663</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>374.9545210541957</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>169.313412270852</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004663</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
@@ -36759,19 +36759,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187482</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879393</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>579.6103458172105</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.7110267941225</v>
+        <v>67.7110267941226</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584675</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
         <v>305.4174435084856</v>
@@ -36999,7 +36999,7 @@
         <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
         <v>291.4406081491599</v>
@@ -37008,7 +37008,7 @@
         <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043173</v>
+        <v>94.42895660043183</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37148,13 +37148,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>702.5357390731098</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980128</v>
@@ -37163,10 +37163,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560242</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M36" t="n">
-        <v>616.5391140644629</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507407</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
         <v>341.4087679352443</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.129440800466</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>535.7175786218078</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37707,7 +37707,7 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
         <v>341.4087679352443</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>387.238612517683</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>555.3724419700203</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
